--- a/classfiers/chatty/elm/smote/chatty_elm__smote_results.xlsx
+++ b/classfiers/chatty/elm/smote/chatty_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9313725490196079</v>
+        <v>0.8175182481751825</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8225108225108225</v>
+        <v>0.5410628019323671</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8735632183908045</v>
+        <v>0.6511627906976744</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9487544619123567</v>
+        <v>0.8299424005945746</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8811188811188811</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.4682926829268293</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6904109589041095</v>
+        <v>0.5597667638483965</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9320332991219068</v>
+        <v>0.7677235772357723</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9171974522292994</v>
+        <v>0.7611940298507462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.732824427480916</v>
+        <v>0.6144578313253012</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9401269286311469</v>
+        <v>0.7906949681143229</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9601990049751243</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8247863247863247</v>
+        <v>0.5125628140703518</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8873563218390804</v>
+        <v>0.6276923076923077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.964653371320038</v>
+        <v>0.8456867671691792</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9103448275862069</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5892857142857143</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7154471544715447</v>
+        <v>0.6310160427807486</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9464858058608059</v>
+        <v>0.8242312771175251</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9200465429858239</v>
+        <v>0.7784214879089946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6828639841351706</v>
+        <v>0.5109227347460372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.779920416217291</v>
+        <v>0.6168191472688858</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9464107733692508</v>
+        <v>0.8116557980462747</v>
       </c>
     </row>
   </sheetData>
